--- a/SAMSDashboard_Automation/SAMS_Dashboard_Data.xlsx
+++ b/SAMSDashboard_Automation/SAMS_Dashboard_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Key</t>
   </si>
@@ -86,6 +86,42 @@
   </si>
   <si>
     <t>" created.</t>
+  </si>
+  <si>
+    <t>brandName</t>
+  </si>
+  <si>
+    <t>brandManager</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Jeremy,Adrian</t>
+  </si>
+  <si>
+    <t>newBrandGrowl1</t>
+  </si>
+  <si>
+    <t>newBrandGrowl2</t>
+  </si>
+  <si>
+    <t>" created</t>
+  </si>
+  <si>
+    <t>mem.staging+</t>
+  </si>
+  <si>
+    <t>brandEmail1</t>
+  </si>
+  <si>
+    <t>brandEmail2</t>
+  </si>
+  <si>
+    <t>@gmail.com</t>
+  </si>
+  <si>
+    <t>New brand "</t>
   </si>
 </sst>
 </file>
@@ -130,9 +166,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -438,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,6 +591,54 @@
         <v>23</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1"/>
